--- a/data/trans_dic/iP30A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A5_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>54,39%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,17; 90,65</t>
+          <t>25,9; 78,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,86; 89,49</t>
+          <t>33,32; 74,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,9; 88,8</t>
+          <t>36,45; 68,92</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>85,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>86,46%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,13; 87,81</t>
+          <t>83,17; 90,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,41; 89,5</t>
+          <t>80,86; 89,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,43; 87,02</t>
+          <t>82,9; 88,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>72,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>73,34%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 78,25</t>
+          <t>66,24; 78,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,32; 74,2</t>
+          <t>67,41; 80,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 68,92</t>
+          <t>68,54; 77,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>73,76%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73,34%</t>
+          <t>83,83%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,24; 78,41</t>
+          <t>77,13; 87,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,41; 80,03</t>
+          <t>79,41; 89,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,54; 77,95</t>
+          <t>80,43; 87,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A5_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,26; 93,32</t>
+          <t>82,88; 93,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,73; 84,42</t>
+          <t>69,35; 84,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,23; 88,06</t>
+          <t>78,53; 87,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,17; 90,65</t>
+          <t>82,92; 90,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,86; 89,49</t>
+          <t>80,44; 89,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,9; 88,8</t>
+          <t>83,3; 89,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,24; 78,41</t>
+          <t>66,48; 78,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,41; 80,03</t>
+          <t>66,9; 79,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,54; 77,95</t>
+          <t>68,59; 77,74</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,13; 87,81</t>
+          <t>76,83; 87,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,41; 89,5</t>
+          <t>80,06; 89,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,43; 87,02</t>
+          <t>80,05; 86,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>79,62; 84,83</t>
+          <t>79,63; 84,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,53; 82,93</t>
+          <t>77,61; 83,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,48; 83,32</t>
+          <t>79,48; 83,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
